--- a/fw-ig/minimal-r401/branch/dev/all-profiles.xlsx
+++ b/fw-ig/minimal-r401/branch/dev/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T19:44:38+00:00</t>
+    <t>2023-01-25T19:51:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/fw-ig/minimal-r401/branch/dev/all-profiles.xlsx
+++ b/fw-ig/minimal-r401/branch/dev/all-profiles.xlsx
@@ -63,7 +63,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-01-25T19:51:09+00:00</t>
+    <t>2023-01-25T19:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
